--- a/Obs_maker/wt_data.xlsx
+++ b/Obs_maker/wt_data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/Python/MyNotebooks/Obs_maker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DF3E3542-5DB4-2B4F-9D41-F50C676EE548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8DE73D-3293-594B-B815-89E4E35CF63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{DDBD3D41-EA1E-954B-8E9E-FFAE8582D994}"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{DDBD3D41-EA1E-954B-8E9E-FFAE8582D994}"/>
   </bookViews>
   <sheets>
     <sheet name="wt_data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="58">
   <si>
     <t>encounter_display</t>
   </si>
@@ -165,12 +165,6 @@
     <t>effective_datetime</t>
   </si>
   <si>
-    <t>This is a simple patient entered weight example for the Argo Write project without any identifier, service key, sensed/entered modality, or encounter data</t>
-  </si>
-  <si>
-    <t>This is a simple patient entered weight example for the Argo Write project with a service key</t>
-  </si>
-  <si>
     <t>This is a simple patient entered weight example for the Argo Write project with a device provided for simple provenance</t>
   </si>
   <si>
@@ -192,10 +186,28 @@
     <t>This is a simple patient entered weight example for the Argo Write project with encounter data provided</t>
   </si>
   <si>
-    <t>This is a simple patient entered weight example for the Argo Write project with modality = sensed|entered by patient data</t>
-  </si>
-  <si>
-    <t>This is a simple patient entered weight example for the Argo Write project with source, identifier, service key, sensed/entered modality, and encounter data</t>
+    <t>This is a simple patient entered weight example for the Argo Write project with modality = sensed</t>
+  </si>
+  <si>
+    <t>This is a simple patient entered weight example for the Argo Write project without any identifier, submission key, sensed/entered modality, or encounter data</t>
+  </si>
+  <si>
+    <t>This is a simple patient entered weight example for the Argo Write project with a submission key</t>
+  </si>
+  <si>
+    <t>This is a simple patient entered weight example for the Argo Write project with source, identifier, submission key, sensed/entered modality, and encounter data</t>
+  </si>
+  <si>
+    <t>This is a simple patient entered weight example for the Argo Write project with a submission key and  modality = self-reported.</t>
+  </si>
+  <si>
+    <t>self-reported</t>
+  </si>
+  <si>
+    <t>This is a simple patient entered weight example for the Argo Write project with a submission key and source.</t>
+  </si>
+  <si>
+    <t>This is a simple patient entered weight example for the Argo Write project with a submission key and device data.</t>
   </si>
 </sst>
 </file>
@@ -203,7 +215,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -248,7 +260,7 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -569,8 +581,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C5E8051-76EC-BC43-9721-41293D9A6D96}">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -602,13 +615,13 @@
         <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
@@ -661,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F2">
         <f ca="1">RANDBETWEEN(160,168)</f>
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G2" s="1">
         <f ca="1">NOW()</f>
-        <v>44382.910019560186</v>
+        <v>44384.626791435185</v>
       </c>
       <c r="H2" s="2" t="str">
         <f ca="1">TEXT(G2,"yyyy-mm-ddThh:MM:ss")&amp;"Z"</f>
-        <v>2021-07-05T21:50:26Z</v>
+        <v>2021-07-07T15:02:35Z</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>31</v>
@@ -687,19 +700,19 @@
         <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F17" ca="1" si="0">RANDBETWEEN(160,168)</f>
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G3" s="1">
         <f ca="1">G2+0.5</f>
-        <v>44383.410019560186</v>
+        <v>44385.126791435185</v>
       </c>
       <c r="H3" s="2" t="str">
         <f t="shared" ref="H3:H17" ca="1" si="1">TEXT(G3,"yyyy-mm-ddThh:MM:ss")&amp;"Z"</f>
-        <v>2021-07-06T09:50:26Z</v>
+        <v>2021-07-08T03:02:35Z</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>31</v>
@@ -722,19 +735,19 @@
         <v>16</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" ref="G4:G17" ca="1" si="2">G3+0.5</f>
-        <v>44383.910019560186</v>
+        <v>44385.626791435185</v>
       </c>
       <c r="H4" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2021-07-06T21:50:26Z</v>
+        <v>2021-07-08T15:02:35Z</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>31</v>
@@ -757,23 +770,23 @@
         <v>17</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" ref="C5:D17" ca="1" si="3">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4)))</f>
-        <v>18c749f9-31ba-920c-1a86-caad8ce861d6</v>
+        <v>cdda928b-2d61-3a57-2eee-2d57336c9771</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44384.410019560186</v>
+        <v>44386.126791435185</v>
       </c>
       <c r="H5" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2021-07-07T09:50:26Z</v>
+        <v>2021-07-09T03:02:35Z</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>31</v>
@@ -787,26 +800,26 @@
         <v>18</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d236f4b3-91b5-8d1d-29f1-801af2ac1696</v>
+        <v>a9b492be-19e0-5018-4823-37781e420397</v>
       </c>
       <c r="E6" t="s">
         <v>30</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44384.910019560186</v>
+        <v>44386.626791435185</v>
       </c>
       <c r="H6" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2021-07-07T21:50:26Z</v>
+        <v>2021-07-09T15:02:35Z</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>31</v>
@@ -820,19 +833,19 @@
         <v>19</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44385.410019560186</v>
+        <v>44387.126791435185</v>
       </c>
       <c r="H7" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2021-07-08T09:50:26Z</v>
+        <v>2021-07-10T03:02:35Z</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>31</v>
@@ -844,12 +857,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="51">
+    <row r="8" spans="1:21" ht="34">
       <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
@@ -857,11 +870,11 @@
       </c>
       <c r="G8" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44385.910019560186</v>
+        <v>44387.626791435185</v>
       </c>
       <c r="H8" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2021-07-08T21:50:26Z</v>
+        <v>2021-07-10T15:02:35Z</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>31</v>
@@ -878,48 +891,25 @@
         <v>21</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0e23a054-4246-806c-1db4-1629fc030475</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>7051c783-4e4d-7a63-56f0-7f2a13654d06</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44386.410019560186</v>
+        <v>44388.126791435185</v>
       </c>
       <c r="H9" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2021-07-09T09:50:26Z</v>
+        <v>2021-07-11T03:02:35Z</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>31</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="N9" t="s">
-        <v>33</v>
-      </c>
-      <c r="O9" t="s">
-        <v>34</v>
-      </c>
-      <c r="P9" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>30</v>
       </c>
       <c r="R9" t="s">
         <v>36</v>
@@ -931,26 +921,19 @@
         <v>38</v>
       </c>
       <c r="U9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="51">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="34">
       <c r="A10" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2fad2b0e-50e3-509b-171f-523083941fdf</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>da4e8b2b-8ab1-97be-45dc-cb6c16520f1f</v>
-      </c>
-      <c r="E10" t="s">
-        <v>30</v>
+        <v>1fb7cd90-9d9d-6334-133d-adfc5832484f</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
@@ -958,29 +941,17 @@
       </c>
       <c r="G10" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44386.910019560186</v>
+        <v>44388.626791435185</v>
       </c>
       <c r="H10" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2021-07-09T21:50:26Z</v>
+        <v>2021-07-11T15:02:35Z</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>31</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="N10" t="s">
-        <v>33</v>
-      </c>
-      <c r="O10" t="s">
-        <v>34</v>
-      </c>
-      <c r="P10" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>30</v>
       </c>
       <c r="R10" t="s">
         <v>36</v>
@@ -991,48 +962,31 @@
       <c r="T10" t="s">
         <v>38</v>
       </c>
-      <c r="U10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="51">
+    </row>
+    <row r="11" spans="1:21" ht="34">
       <c r="A11" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>dd19bdf0-0997-0a68-039d-e354fb7b8bcb</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>9544da8f-447a-a692-7ab5-df767ae61b69</v>
-      </c>
-      <c r="E11" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44387.410019560186</v>
+        <v>44389.126791435185</v>
       </c>
       <c r="H11" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2021-07-10T09:50:26Z</v>
+        <v>2021-07-12T03:02:35Z</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>31</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="N11" t="s">
-        <v>33</v>
       </c>
       <c r="O11" t="s">
         <v>34</v>
@@ -1051,9 +1005,6 @@
       </c>
       <c r="T11" t="s">
         <v>38</v>
-      </c>
-      <c r="U11" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="51">
@@ -1065,26 +1016,26 @@
       </c>
       <c r="C12" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>fb396a1b-0baf-1b70-2eea-047b4f7b4c0d</v>
+        <v>0dcdd41f-844f-290a-39e2-c9e2af22878d</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>97051f62-8dab-4bd9-276c-3cd88b2f5599</v>
+        <v>ef138f8e-32f1-10ca-921f-72c1bbc825ee</v>
       </c>
       <c r="E12" t="s">
         <v>30</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44387.910019560186</v>
+        <v>44389.626791435185</v>
       </c>
       <c r="H12" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2021-07-10T21:50:26Z</v>
+        <v>2021-07-12T15:02:35Z</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>31</v>
@@ -1126,26 +1077,26 @@
       </c>
       <c r="C13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>da4912b6-55e5-0b20-5ef2-fbcbe9659723</v>
+        <v>b3392a3a-0f95-49d9-1ea7-a79579ca4a1d</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>8581ad94-486d-98c5-a437-fbb20e6005ee</v>
+        <v>ad42644f-7f4f-14c5-6eec-ff9459540b51</v>
       </c>
       <c r="E13" t="s">
         <v>30</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44388.410019560186</v>
+        <v>44390.126791435185</v>
       </c>
       <c r="H13" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2021-07-11T09:50:26Z</v>
+        <v>2021-07-13T03:02:35Z</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>31</v>
@@ -1187,26 +1138,26 @@
       </c>
       <c r="C14" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>b8530aea-7768-4dd2-1778-9863d5dc17f5</v>
+        <v>e224e3c4-699f-2f7a-544d-d202301b35d5</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>a224318d-596b-004d-9295-8eb1a7bb0f28</v>
+        <v>08d57e91-1bce-68ed-6244-f7955ae3857e</v>
       </c>
       <c r="E14" t="s">
         <v>30</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44388.910019560186</v>
+        <v>44390.626791435185</v>
       </c>
       <c r="H14" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2021-07-11T21:50:26Z</v>
+        <v>2021-07-13T15:02:35Z</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>31</v>
@@ -1248,26 +1199,26 @@
       </c>
       <c r="C15" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>635a72a7-7425-32ba-3d3e-4c0916374ec7</v>
+        <v>911f886e-3e4e-a3a7-99d4-927b4b262efa</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>c80b63dd-575d-646a-a5aa-38e947736ab1</v>
+        <v>d26e9041-13c5-2612-14e4-8108d47d7f02</v>
       </c>
       <c r="E15" t="s">
         <v>30</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44389.410019560186</v>
+        <v>44391.126791435185</v>
       </c>
       <c r="H15" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2021-07-12T09:50:26Z</v>
+        <v>2021-07-14T03:02:35Z</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>31</v>
@@ -1309,26 +1260,26 @@
       </c>
       <c r="C16" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>4fe4a25e-51f1-4645-2f7a-4a2efdc93c90</v>
+        <v>6576859f-3286-7aa9-a1fa-c8f12b638ac1</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>8e175ea0-017a-90d7-96d6-f259d76d9be3</v>
+        <v>6ea7ba5d-8f38-9454-4c16-864d345580c9</v>
       </c>
       <c r="E16" t="s">
         <v>30</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44389.910019560186</v>
+        <v>44391.626791435185</v>
       </c>
       <c r="H16" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2021-07-12T21:50:26Z</v>
+        <v>2021-07-14T15:02:35Z</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>31</v>
@@ -1370,26 +1321,26 @@
       </c>
       <c r="C17" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>5dba2571-3a32-20b0-0332-c45f037ca0b7</v>
+        <v>f573bd5e-a5ca-7193-7269-fc84eb845c50</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ac7f522d-44e6-447a-8f68-44eec9125fa2</v>
+        <v>0d2d3690-6683-0baf-3cdd-fe414ec80aa3</v>
       </c>
       <c r="E17" t="s">
         <v>30</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="0"/>
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44390.410019560186</v>
+        <v>44392.126791435185</v>
       </c>
       <c r="H17" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2021-07-13T09:50:26Z</v>
+        <v>2021-07-15T03:02:35Z</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>31</v>
